--- a/Tseng2022/Host Trait Model/Output/table_predicted_hosts_competence.xlsx
+++ b/Tseng2022/Host Trait Model/Output/table_predicted_hosts_competence.xlsx
@@ -633,6 +633,9 @@
     <t xml:space="preserve">Maxomys</t>
   </si>
   <si>
+    <t xml:space="preserve">Nesokia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nesoromys</t>
   </si>
   <si>
@@ -742,9 +745,6 @@
   </si>
   <si>
     <t xml:space="preserve">Grammomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nesokia</t>
   </si>
   <si>
     <t xml:space="preserve">Praomys</t>
@@ -3416,7 +3416,7 @@
         <v>66</v>
       </c>
       <c r="C98" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99">
@@ -3427,7 +3427,7 @@
         <v>66</v>
       </c>
       <c r="C99" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
@@ -3438,7 +3438,7 @@
         <v>66</v>
       </c>
       <c r="C100" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101">
@@ -3449,7 +3449,7 @@
         <v>66</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102">
@@ -3479,10 +3479,10 @@
         <v>59</v>
       </c>
       <c r="B104" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="C104" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105">
@@ -3493,7 +3493,7 @@
         <v>147</v>
       </c>
       <c r="C105" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106">
@@ -3501,10 +3501,10 @@
         <v>59</v>
       </c>
       <c r="B106" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="C106" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107">
@@ -3526,7 +3526,7 @@
         <v>73</v>
       </c>
       <c r="C108" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109">
@@ -3537,7 +3537,7 @@
         <v>73</v>
       </c>
       <c r="C109" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
@@ -3548,7 +3548,7 @@
         <v>73</v>
       </c>
       <c r="C110" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111">
@@ -3559,7 +3559,7 @@
         <v>73</v>
       </c>
       <c r="C111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>73</v>
       </c>
       <c r="C112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
@@ -3581,7 +3581,7 @@
         <v>73</v>
       </c>
       <c r="C113" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
@@ -3592,7 +3592,7 @@
         <v>73</v>
       </c>
       <c r="C114" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115">
@@ -3603,7 +3603,7 @@
         <v>73</v>
       </c>
       <c r="C115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116">
@@ -3614,7 +3614,7 @@
         <v>73</v>
       </c>
       <c r="C116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117">
@@ -3625,7 +3625,7 @@
         <v>73</v>
       </c>
       <c r="C117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118">
@@ -3636,7 +3636,7 @@
         <v>73</v>
       </c>
       <c r="C118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
@@ -3647,7 +3647,18 @@
         <v>73</v>
       </c>
       <c r="C119" t="s">
-        <v>214</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>59</v>
+      </c>
+      <c r="B120" t="s">
+        <v>73</v>
+      </c>
+      <c r="C120" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3683,7 +3694,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3">
@@ -3713,10 +3724,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6">
@@ -3859,7 +3870,7 @@
         <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19">
@@ -3881,7 +3892,7 @@
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
@@ -3892,7 +3903,7 @@
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
@@ -4021,10 +4032,10 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34">
@@ -4035,7 +4046,7 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35">
@@ -4057,7 +4068,7 @@
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37">
@@ -4123,7 +4134,7 @@
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43">
@@ -4244,7 +4255,7 @@
         <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54">
@@ -4255,7 +4266,7 @@
         <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55">
@@ -4266,7 +4277,7 @@
         <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56">
@@ -4376,7 +4387,7 @@
         <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66">
@@ -4453,7 +4464,7 @@
         <v>62</v>
       </c>
       <c r="C72" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73">
@@ -4486,7 +4497,7 @@
         <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76">
@@ -4497,7 +4508,7 @@
         <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77">
@@ -4684,7 +4695,7 @@
         <v>62</v>
       </c>
       <c r="C93" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94">
@@ -4739,7 +4750,7 @@
         <v>62</v>
       </c>
       <c r="C98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99">
@@ -4761,7 +4772,7 @@
         <v>62</v>
       </c>
       <c r="C100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101">
@@ -4857,10 +4868,10 @@
         <v>59</v>
       </c>
       <c r="B109" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C109" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110">
@@ -4868,10 +4879,10 @@
         <v>59</v>
       </c>
       <c r="B110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C110" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111">
@@ -4882,7 +4893,7 @@
         <v>66</v>
       </c>
       <c r="C111" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112">
@@ -4893,7 +4904,7 @@
         <v>66</v>
       </c>
       <c r="C112" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113">
@@ -4937,7 +4948,7 @@
         <v>66</v>
       </c>
       <c r="C116" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117">
@@ -4992,7 +5003,7 @@
         <v>66</v>
       </c>
       <c r="C121" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
     </row>
     <row r="122">
@@ -5003,7 +5014,7 @@
         <v>66</v>
       </c>
       <c r="C122" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="123">
@@ -5036,7 +5047,7 @@
         <v>66</v>
       </c>
       <c r="C125" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="126">
@@ -5058,7 +5069,7 @@
         <v>66</v>
       </c>
       <c r="C127" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="128">
@@ -5080,7 +5091,7 @@
         <v>66</v>
       </c>
       <c r="C129" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="130">
@@ -5102,7 +5113,7 @@
         <v>66</v>
       </c>
       <c r="C131" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="132">
@@ -5146,7 +5157,7 @@
         <v>73</v>
       </c>
       <c r="C135" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="136">
@@ -5157,7 +5168,7 @@
         <v>73</v>
       </c>
       <c r="C136" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137">
@@ -5179,7 +5190,7 @@
         <v>73</v>
       </c>
       <c r="C138" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139">
@@ -5223,7 +5234,7 @@
         <v>73</v>
       </c>
       <c r="C142" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="143">
@@ -5344,7 +5355,7 @@
         <v>73</v>
       </c>
       <c r="C153" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5380,7 +5391,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3">
@@ -5410,10 +5421,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6">
@@ -5556,7 +5567,7 @@
         <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19">
@@ -5578,7 +5589,7 @@
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
@@ -5589,7 +5600,7 @@
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
@@ -5718,10 +5729,10 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34">
@@ -5732,7 +5743,7 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35">
@@ -5754,7 +5765,7 @@
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37">
@@ -5820,7 +5831,7 @@
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43">
@@ -5941,7 +5952,7 @@
         <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54">
@@ -5952,7 +5963,7 @@
         <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55">
@@ -5963,7 +5974,7 @@
         <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56">
@@ -6073,7 +6084,7 @@
         <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66">
@@ -6150,7 +6161,7 @@
         <v>62</v>
       </c>
       <c r="C72" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73">
@@ -6183,7 +6194,7 @@
         <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76">
@@ -6194,7 +6205,7 @@
         <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77">
@@ -6381,7 +6392,7 @@
         <v>62</v>
       </c>
       <c r="C93" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94">
@@ -6436,7 +6447,7 @@
         <v>62</v>
       </c>
       <c r="C98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99">
@@ -6458,7 +6469,7 @@
         <v>62</v>
       </c>
       <c r="C100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101">
@@ -6554,10 +6565,10 @@
         <v>59</v>
       </c>
       <c r="B109" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C109" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110">
@@ -6565,10 +6576,10 @@
         <v>59</v>
       </c>
       <c r="B110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C110" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111">
@@ -6579,7 +6590,7 @@
         <v>66</v>
       </c>
       <c r="C111" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112">
@@ -6590,7 +6601,7 @@
         <v>66</v>
       </c>
       <c r="C112" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113">
@@ -6634,7 +6645,7 @@
         <v>66</v>
       </c>
       <c r="C116" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117">
@@ -6689,7 +6700,7 @@
         <v>66</v>
       </c>
       <c r="C121" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
     </row>
     <row r="122">
@@ -6700,7 +6711,7 @@
         <v>66</v>
       </c>
       <c r="C122" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="123">
@@ -6733,7 +6744,7 @@
         <v>66</v>
       </c>
       <c r="C125" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="126">
@@ -6755,7 +6766,7 @@
         <v>66</v>
       </c>
       <c r="C127" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="128">
@@ -6777,7 +6788,7 @@
         <v>66</v>
       </c>
       <c r="C129" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="130">
@@ -6799,7 +6810,7 @@
         <v>66</v>
       </c>
       <c r="C131" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="132">
@@ -6843,7 +6854,7 @@
         <v>73</v>
       </c>
       <c r="C135" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="136">
@@ -6854,7 +6865,7 @@
         <v>73</v>
       </c>
       <c r="C136" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137">
@@ -6876,7 +6887,7 @@
         <v>73</v>
       </c>
       <c r="C138" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139">
@@ -6920,7 +6931,7 @@
         <v>73</v>
       </c>
       <c r="C142" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="143">
@@ -7041,7 +7052,7 @@
         <v>73</v>
       </c>
       <c r="C153" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
